--- a/timesheet_4.xlsx
+++ b/timesheet_4.xlsx
@@ -395,22 +395,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,7 +725,7 @@
   <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,11 +767,11 @@
       <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="26" t="s">
         <v>7</v>
       </c>
@@ -808,11 +808,11 @@
       <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="34">
@@ -820,11 +820,11 @@
       </c>
       <c r="G9" s="38">
         <f>SUM(D9:D11)*60+SUM(F9:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="35" t="str">
+        <v>180</v>
+      </c>
+      <c r="H9" s="39" t="str">
         <f>CONCATENATE(QUOTIENT(G9,60),"h",IF(MOD(G9,60)&lt;10,"0",""),MOD(G9,60),"m")</f>
-        <v>0h00m</v>
+        <v>3h00m</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -833,9 +833,9 @@
       <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="40"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34">
@@ -849,9 +849,9 @@
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="39"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="34">
@@ -865,7 +865,7 @@
       <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="35" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="34">
@@ -879,7 +879,7 @@
         <f>SUM(D12:D13)*60+SUM(F12:F13)</f>
         <v>190</v>
       </c>
-      <c r="H12" s="35" t="str">
+      <c r="H12" s="39" t="str">
         <f>CONCATENATE(QUOTIENT(G12,60),"h",IF(MOD(G12,60)&lt;10,"0",""),MOD(G12,60),"m")</f>
         <v>3h10m</v>
       </c>
@@ -889,7 +889,7 @@
       <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="34">
         <v>0</v>
       </c>
@@ -898,14 +898,14 @@
         <v>10</v>
       </c>
       <c r="G13" s="38"/>
-      <c r="H13" s="35"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
       <c r="B14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="34">
@@ -919,7 +919,7 @@
         <f>SUM(D14:D17)*60+SUM(F14:F17)</f>
         <v>1500</v>
       </c>
-      <c r="H14" s="35" t="str">
+      <c r="H14" s="39" t="str">
         <f>CONCATENATE(QUOTIENT(G14,60),"h",IF(MOD(G14,60)&lt;10,"0",""),MOD(G14,60),"m")</f>
         <v>25h00m</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="34">
         <v>10</v>
       </c>
@@ -938,14 +938,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="38"/>
-      <c r="H15" s="35"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="39"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="34">
         <v>3</v>
       </c>
@@ -954,14 +954,14 @@
         <v>0</v>
       </c>
       <c r="G16" s="38"/>
-      <c r="H16" s="35"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="39"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="34">
         <v>6</v>
       </c>
@@ -990,11 +990,11 @@
       </c>
       <c r="G19" s="17">
         <f>SUM(G9:G17)</f>
-        <v>1690</v>
+        <v>1870</v>
       </c>
       <c r="H19" s="23" t="str">
         <f>CONCATENATE(QUOTIENT(G19,60),"h",IF(MOD(G19,60)&lt;10,"0",""),MOD(G19,60),"m")</f>
-        <v>28h10m</v>
+        <v>31h10m</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1026,17 +1026,17 @@
   </sheetData>
   <sheetProtection password="E05B" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="A9:A17"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="G14:G17"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="G12:G13"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="G14:G17"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9 F11:F17">
